--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>tutoriel-web-spring-pouiller</t>
   </si>
@@ -311,6 +311,38 @@
         <family val="2"/>
       </rPr>
       <t>."</t>
+    </r>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Installer une base Postgresql (+ MySQL + HsqlDB)</t>
+  </si>
+  <si>
+    <t>Essayer de voir si il serait possible de lancer "partiellement" une application sans instancier  le bean de Spring LocalContainerEntityManagerFactoryBean. En clair, de lancer une application sans la connexion à la base de données.</t>
+  </si>
+  <si>
+    <r>
+      <t>Essayer de comprendre le pourquoi du message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/tutoriel-web-spring-pouiller/app/app/] in DispatcherServlet with name 'servlet-application-context'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
     </r>
   </si>
 </sst>
@@ -353,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,23 +393,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7004F-830C-4C52-AA6E-2CA726E21D31}">
-  <dimension ref="B3:C10"/>
+  <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -707,68 +760,94 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136DD5A7-459C-4E4E-8621-4B45275FF77D}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -795,117 +874,136 @@
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\Conception et Tutoriaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\tutoriel-web-spring-pouiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>tutoriel-web-spring-pouiller</t>
   </si>
@@ -344,6 +344,15 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Comprendre pourquoi l'appli fonctionnait sans property name="persistenceUnitName" dans le applicationContext.xml</t>
+  </si>
+  <si>
+    <t>Lire la doc du repository FichiersXML.EAP et vérifier ma compréhension. Clarifier le rôle de chaque fichier XML</t>
+  </si>
+  <si>
+    <t>Voir pourquoi on ne retrouve pas le applicationContext.xml dans "target"</t>
   </si>
 </sst>
 </file>
@@ -746,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7004F-830C-4C52-AA6E-2CA726E21D31}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -848,6 +857,30 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -758,7 +758,7 @@
   <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -879,7 +879,7 @@
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Capitalisation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>tutoriel-web-spring-pouiller</t>
   </si>
@@ -238,10 +239,6 @@
     <t>Installation chez Clemessy du tutoriel (attention, je suis passé à TOMCAT 8.5.23)</t>
   </si>
   <si>
-    <t>Test chez Clemessy du bon fonctionnement du tutoriel 
-(Attention, le tutoriel ne fonctionne que si une base de données "base-tutoriel-web-spring-pouiller" est lancée sur un serveur Postgresql 9.6. Sinon, Exception lors du lancement du contexte SPRING - A REGLER)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -264,6 +261,103 @@
   </si>
   <si>
     <t>Parcourir le document tutoriel-web-spring-pouiller/A_voir_dans_ce_tutoriel_(Pouiller).docx</t>
+  </si>
+  <si>
+    <r>
+      <t>Essayer de comprendre le pourquoi du message de démarrage de TOMCAT "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>INFOS: At least one JAR was scanned for TLDs yet contained no TLDs. Enable debug logging for this logger for a complete list of JARs that were scanned but no TLDs were found in them. Skipping unneeded JARs during scanning can improve startup time and JSP compilation time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>."</t>
+    </r>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Installer une base Postgresql (+ MySQL + HsqlDB)</t>
+  </si>
+  <si>
+    <t>Essayer de voir si il serait possible de lancer "partiellement" une application sans instancier  le bean de Spring LocalContainerEntityManagerFactoryBean. En clair, de lancer une application sans la connexion à la base de données.</t>
+  </si>
+  <si>
+    <r>
+      <t>Essayer de comprendre le pourquoi du message "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/tutoriel-web-spring-pouiller/app/app/] in DispatcherServlet with name 'servlet-application-context'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Comprendre pourquoi l'appli fonctionnait sans property name="persistenceUnitName" dans le applicationContext.xml</t>
+  </si>
+  <si>
+    <t>Lire la doc du repository FichiersXML.EAP et vérifier ma compréhension. Clarifier le rôle de chaque fichier XML</t>
+  </si>
+  <si>
+    <t>Voir pourquoi on ne retrouve pas le applicationContext.xml dans "target"</t>
+  </si>
+  <si>
+    <r>
+      <t>Tester et vérifier src/main/java/levy/daniel/application/model/dao/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AbstractDaoGenericJPASpring.java</t>
+    </r>
+  </si>
+  <si>
+    <t>Expliquer le problème posé par une transaction qui créerait un doublon (DaoDoublonException). Ce cas d'utilisation est fréquent. Le comportement attendu est que le programme ne s'arrête pas, lève une DaoDoublonException, et que la transaction de création du doublon soit rollbackée...
+Par ailleurs, dans un CU comme : je crée course1, puis course2, puis à nouveau course1 (doublon), seule la transaction concernant le dernier ajout de course1 (doublon) doit être rollbackée.
+La transaction de plus haut niveau comprenant l'enregistrement de  course1, puis course2 ne doit pas être rollbackée. Comment expliquer ça dans JUnit avec SPRING ?</t>
+  </si>
+  <si>
+    <t>Voir comment rapatrier la gestion du pool de connexions dans applicationContext.xml plutôt que dans persistence.xml. 
+"Qui" doit gérer le pool de connexion (dbcp2, c3p0, …) lorsque ce n'est pas TOMCAT ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test chez Clemessy du bon fonctionnement du tutoriel </t>
+  </si>
+  <si>
+    <t>FAIT</t>
+  </si>
+  <si>
+    <t>NON FAIT - PAS PRIORITAIRE</t>
   </si>
   <si>
     <r>
@@ -287,72 +381,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>), …).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Essayer de comprendre le pourquoi du message de démarrage de TOMCAT "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>INFOS: At least one JAR was scanned for TLDs yet contained no TLDs. Enable debug logging for this logger for a complete list of JARs that were scanned but no TLDs were found in them. Skipping unneeded JARs during scanning can improve startup time and JSP compilation time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>."</t>
-    </r>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Installer une base Postgresql (+ MySQL + HsqlDB)</t>
-  </si>
-  <si>
-    <t>Essayer de voir si il serait possible de lancer "partiellement" une application sans instancier  le bean de Spring LocalContainerEntityManagerFactoryBean. En clair, de lancer une application sans la connexion à la base de données.</t>
-  </si>
-  <si>
-    <r>
-      <t>Essayer de comprendre le pourquoi du message "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>org.springframework.web.servlet.PageNotFound - No mapping found for HTTP request with URI [/tutoriel-web-spring-pouiller/app/app/] in DispatcherServlet with name 'servlet-application-context'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>Comprendre pourquoi l'appli fonctionnait sans property name="persistenceUnitName" dans le applicationContext.xml</t>
-  </si>
-  <si>
-    <t>Lire la doc du repository FichiersXML.EAP et vérifier ma compréhension. Clarifier le rôle de chaque fichier XML</t>
-  </si>
-  <si>
-    <t>Voir pourquoi on ne retrouve pas le applicationContext.xml dans "target"</t>
+      <t xml:space="preserve">), …).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tester le tutoriel avec une connexion à MySQL</t>
+    </r>
+  </si>
+  <si>
+    <t>FAIT - Mettre le &lt;property name="hibernate.hbm2ddl.auto" value="none" /&gt; dans persistence.xml.
+ATTENTION : ne fonctionne qu'avec une connexion JNDI (gérée par TOMCAT).
+Sinon, SPRING cherchera à localiser la BD si il déclare lui-même la DataSource,</t>
+  </si>
+  <si>
+    <t>FAIT - Du à l'implémentation de Spring qui recherche dans l'ordre (en cas d'absence de property name="persistenceUnitName" dans le applicationContext.xml :
+-- Une persistence-unit nommée "défault" dans le persistence.xml,
+-- La seule persistence-unit présente dans le persistence.xml,</t>
+  </si>
+  <si>
+    <t>FAIT - PAS D'ERREUR DANS MA DOC.</t>
+  </si>
+  <si>
+    <t>NON FAIT - IMPORTANT</t>
+  </si>
+  <si>
+    <t>Voir comment utiliser les annotations (@Entity, @ContextConfiguration, @TestExecutionListeners, @Commit, @Rollback, @Transactional, ...) avec les tests unitaires sous SPRING pour les DAO</t>
+  </si>
+  <si>
+    <t>NON FAIT - IMPORTANT
+Voir le test Junit /src/test/java/levy/daniel/application/model/dao/course/impl/CourseDaoTest.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tester et commenter l'utilisation de HSQLDB pour les tests
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tester le tutoriel avec une connexion à HsqlDB</t>
+    </r>
+  </si>
+  <si>
+    <t>TACHE A REALISER</t>
+  </si>
+  <si>
+    <t>ETAT DE REALISATION</t>
   </si>
 </sst>
 </file>
@@ -380,7 +466,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +479,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -417,11 +527,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -432,14 +648,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,10 +1007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7004F-830C-4C52-AA6E-2CA726E21D31}">
-  <dimension ref="A3:C15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -766,122 +1021,228 @@
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="120.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="85.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,30 +1269,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -945,7 +1306,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1016,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1027,10 +1388,10 @@
     </row>
     <row r="10" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>

--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>tutoriel-web-spring-pouiller</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>ETAT DE REALISATION</t>
+  </si>
+  <si>
+    <t>Comment peut-on tracer une transaction Spring lors des Tests Junit sur les DAO ?</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,6 +694,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,10 +1016,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,8 +1247,12 @@
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Suivi_Collaboration_Cerema_Clemessy.xlsx
+++ b/Suivi_Collaboration_Cerema_Clemessy.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Donnees\eclipse\eclipseworkspace_neon\tutoriel-web-spring-pouiller\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11115" xr2:uid="{396E28E2-4C04-4375-BE8B-AB5CD2E2AF76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11115" tabRatio="237"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches_a_réaliser" sheetId="1" r:id="rId1"/>
     <sheet name="Capitalisation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>tutoriel-web-spring-pouiller</t>
   </si>
@@ -441,13 +436,36 @@
     <t>ETAT DE REALISATION</t>
   </si>
   <si>
-    <t>Comment peut-on tracer une transaction Spring lors des Tests Junit sur les DAO ?</t>
+    <t>Mauvais paramétrage de maven.</t>
+  </si>
+  <si>
+    <t>Attention pour que cela fonctionne il ne faut pas que l'application nécessite un accès a la bdd au démarrage.</t>
+  </si>
+  <si>
+    <t>Ceci est le comportement de tomcat Par defaut: il scan ses jar contenant des TLDs (taglib partagé pour toutes les applications)
+Il est possible de désactiver le scan : 
+Dans catalina.properties.
+Modifier la ligne : tomcat.util.scan.StandardJarScanFilter.jarsToSkip=*</t>
+  </si>
+  <si>
+    <t>Les placeholders dans spring sont défini a l'aide de la class PropertyPlaceholderConfigurer (class du framework spring; spring-beans)</t>
+  </si>
+  <si>
+    <t>Changer le beans datasource avec C3P0. 
+Remplacer org.springframework.jdbc.datasource.DriverManagerDataSource par com.mchange.v2.c3p0.ComboPooledDataSource
+Les configurations possibles sont dans applicationContext.xml</t>
+  </si>
+  <si>
+    <t>Il faut une classe concrete pour effectuer les tests unitaire, le plus simple et de tester toute les fonctions de la class AbstractDaoGenericJPASpring dans le test DaoCourseTest</t>
+  </si>
+  <si>
+    <t>Il est conseillé d'utiliser hsqldb en mémoire jdbc:hsqldb:mem pour les tests unitaires JUNIT cela permet de ne pas fausser les tests (toujours les mêmes conditions) notamment pour l'intégration continue.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -640,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -694,9 +712,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,21 +1020,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7004F-830C-4C52-AA6E-2CA726E21D31}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,11 +1043,12 @@
     <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="120.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="85.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="117.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -1053,7 +1069,7 @@
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -1063,7 +1079,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -1073,7 +1089,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1083,7 +1099,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -1095,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -1106,8 +1122,11 @@
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1119,7 +1138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -1130,8 +1149,11 @@
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -1142,8 +1164,11 @@
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -1155,7 +1180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1212,11 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1198,8 +1226,11 @@
       <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1251,11 @@
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1242,17 +1276,16 @@
       <c r="D20" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136DD5A7-459C-4E4E-8621-4B45275FF77D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
